--- a/reports/For Winter Ending (Prior Year)_PayrollHistory.xlsx
+++ b/reports/For Winter Ending (Prior Year)_PayrollHistory.xlsx
@@ -537,7 +537,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2">
-        <v>9826.59</v>
+        <v>11856.87</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -545,7 +545,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="2">
-        <v>55367.51</v>
+        <v>84721.46</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -553,7 +553,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="2">
-        <v>67996.66</v>
+        <v>83429.94</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -561,7 +561,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="2">
-        <v>47228.67</v>
+        <v>61431.14</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -569,7 +569,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="2">
-        <v>17705.71</v>
+        <v>22859.31</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -577,7 +577,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="2">
-        <v>48580.62</v>
+        <v>61943.29</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -585,7 +585,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="2">
-        <v>31984.36</v>
+        <v>38900.75</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -593,7 +593,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="2">
-        <v>74854.49</v>
+        <v>99934.00</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -601,7 +601,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="2">
-        <v>22644.44</v>
+        <v>29728.64</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -609,7 +609,7 @@
         <v>11</v>
       </c>
       <c r="B11" s="2">
-        <v>30024.52</v>
+        <v>55320.47</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -617,7 +617,7 @@
         <v>12</v>
       </c>
       <c r="B12" s="2">
-        <v>4835.20</v>
+        <v>7005.08</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -625,7 +625,7 @@
         <v>13</v>
       </c>
       <c r="B13" s="2">
-        <v>25562.94</v>
+        <v>32989.58</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -633,7 +633,7 @@
         <v>14</v>
       </c>
       <c r="B14" s="2">
-        <v>4792.56</v>
+        <v>5399.28</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -641,7 +641,7 @@
         <v>15</v>
       </c>
       <c r="B15" s="2">
-        <v>13290.81</v>
+        <v>18826.54</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -649,7 +649,7 @@
         <v>16</v>
       </c>
       <c r="B16" s="2">
-        <v>16510.30</v>
+        <v>20119.90</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -657,7 +657,7 @@
         <v>17</v>
       </c>
       <c r="B17" s="2">
-        <v>51015.11</v>
+        <v>63090.92</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -665,7 +665,7 @@
         <v>18</v>
       </c>
       <c r="B18" s="2">
-        <v>8781.04</v>
+        <v>13545.33</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -673,7 +673,7 @@
         <v>19</v>
       </c>
       <c r="B19" s="2">
-        <v>2201.51</v>
+        <v>4219.84</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -681,7 +681,7 @@
         <v>20</v>
       </c>
       <c r="B20" s="2">
-        <v>1259.55</v>
+        <v>1753.80</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -689,7 +689,7 @@
         <v>21</v>
       </c>
       <c r="B21" s="2">
-        <v>8740.47</v>
+        <v>10960.02</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -697,7 +697,7 @@
         <v>22</v>
       </c>
       <c r="B22" s="2">
-        <v>6045.23</v>
+        <v>8920.95</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -705,7 +705,7 @@
         <v>23</v>
       </c>
       <c r="B23" s="2">
-        <v>26727.11</v>
+        <v>35805.86</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -713,7 +713,7 @@
         <v>24</v>
       </c>
       <c r="B24" s="2">
-        <v>1485.79</v>
+        <v>3678.25</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -721,7 +721,7 @@
         <v>25</v>
       </c>
       <c r="B25" s="2">
-        <v>6268.16</v>
+        <v>7639.32</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -729,7 +729,7 @@
         <v>26</v>
       </c>
       <c r="B26" s="2">
-        <v>18512.32</v>
+        <v>22561.89</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -737,7 +737,7 @@
         <v>27</v>
       </c>
       <c r="B27" s="2">
-        <v>49480.64</v>
+        <v>60095.28</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -745,7 +745,7 @@
         <v>28</v>
       </c>
       <c r="B28" s="2">
-        <v>14226.21</v>
+        <v>17790.18</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -753,7 +753,7 @@
         <v>29</v>
       </c>
       <c r="B29" s="2">
-        <v>52027.17</v>
+        <v>61871.93</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -761,7 +761,7 @@
         <v>30</v>
       </c>
       <c r="B30" s="2">
-        <v>11347.84</v>
+        <v>13830.18</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -769,7 +769,7 @@
         <v>31</v>
       </c>
       <c r="B31" s="2">
-        <v>21262.60</v>
+        <v>24233.54</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -777,7 +777,7 @@
         <v>32</v>
       </c>
       <c r="B32" s="2">
-        <v>1117.15</v>
+        <v>1332.54</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -785,7 +785,7 @@
         <v>33</v>
       </c>
       <c r="B33" s="2">
-        <v>5787.84</v>
+        <v>7033.03</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -793,7 +793,7 @@
         <v>34</v>
       </c>
       <c r="B34" s="2">
-        <v>22689.00</v>
+        <v>27721.40</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -801,7 +801,7 @@
         <v>35</v>
       </c>
       <c r="B35" s="2">
-        <v>26717.10</v>
+        <v>35630.14</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -817,7 +817,7 @@
         <v>37</v>
       </c>
       <c r="B37" s="2">
-        <v>12881.28</v>
+        <v>17609.12</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -825,7 +825,7 @@
         <v>38</v>
       </c>
       <c r="B38" s="2">
-        <v>3490.38</v>
+        <v>4188.95</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -833,7 +833,7 @@
         <v>39</v>
       </c>
       <c r="B39" s="2">
-        <v>11021.62</v>
+        <v>13460.04</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -841,7 +841,7 @@
         <v>40</v>
       </c>
       <c r="B40" s="2">
-        <v>15592.02</v>
+        <v>19857.97</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -849,7 +849,7 @@
         <v>41</v>
       </c>
       <c r="B41" s="2">
-        <v>35852.16</v>
+        <v>43694.82</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -857,7 +857,7 @@
         <v>42</v>
       </c>
       <c r="B42" s="2">
-        <v>19968.08</v>
+        <v>24689.87</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -865,7 +865,7 @@
         <v>43</v>
       </c>
       <c r="B43" s="2">
-        <v>5767.04</v>
+        <v>7028.58</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -873,7 +873,7 @@
         <v>44</v>
       </c>
       <c r="B44" s="2">
-        <v>8825.49</v>
+        <v>10353.63</v>
       </c>
     </row>
     <row r="45" spans="1:2">

--- a/reports/For Winter Ending (Prior Year)_PayrollHistory.xlsx
+++ b/reports/For Winter Ending (Prior Year)_PayrollHistory.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <si>
     <t>department</t>
   </si>
@@ -52,52 +52,40 @@
     <t>D2000</t>
   </si>
   <si>
-    <t>D2200</t>
-  </si>
-  <si>
     <t>D3000</t>
   </si>
   <si>
-    <t>D4053</t>
-  </si>
-  <si>
-    <t>D4054</t>
-  </si>
-  <si>
-    <t>D4055</t>
+    <t>D3050</t>
+  </si>
+  <si>
+    <t>D4031</t>
+  </si>
+  <si>
+    <t>D4032</t>
+  </si>
+  <si>
+    <t>D4034</t>
   </si>
   <si>
     <t>D5000</t>
   </si>
   <si>
-    <t>D5201</t>
-  </si>
-  <si>
-    <t>D5202</t>
-  </si>
-  <si>
-    <t>D5205</t>
-  </si>
-  <si>
-    <t>D5206</t>
-  </si>
-  <si>
-    <t>D5207</t>
-  </si>
-  <si>
-    <t>D5208</t>
-  </si>
-  <si>
-    <t>D5209</t>
-  </si>
-  <si>
-    <t>D5810</t>
+    <t>D5110</t>
+  </si>
+  <si>
+    <t>D5111</t>
+  </si>
+  <si>
+    <t>D5112</t>
+  </si>
+  <si>
+    <t>D5113</t>
   </si>
   <si>
     <t>D5820</t>
   </si>
   <si>
-    <t>D6212</t>
+    <t>D6030</t>
   </si>
   <si>
     <t>D6215</t>
@@ -106,19 +94,16 @@
     <t>D6700</t>
   </si>
   <si>
-    <t>D6710</t>
-  </si>
-  <si>
-    <t>D6720</t>
-  </si>
-  <si>
     <t>D6721</t>
   </si>
   <si>
     <t>D6730</t>
   </si>
   <si>
-    <t>D6750</t>
+    <t>D6740</t>
+  </si>
+  <si>
+    <t>D6760</t>
   </si>
   <si>
     <t>D6780</t>
@@ -136,6 +121,9 @@
     <t>D7010</t>
   </si>
   <si>
+    <t>D8010</t>
+  </si>
+  <si>
     <t>D8020</t>
   </si>
   <si>
@@ -151,7 +139,22 @@
     <t>D8060</t>
   </si>
   <si>
-    <t>D8810</t>
+    <t>D9000</t>
+  </si>
+  <si>
+    <t>D9005</t>
+  </si>
+  <si>
+    <t>D9007</t>
+  </si>
+  <si>
+    <t>D9008</t>
+  </si>
+  <si>
+    <t>D9009</t>
+  </si>
+  <si>
+    <t>D9012</t>
   </si>
 </sst>
 </file>
@@ -514,14 +517,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B45"/>
+  <dimension ref="A1:B46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12.7109375" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -537,7 +540,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2">
-        <v>11856.87</v>
+        <v>34993.53</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -545,7 +548,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="2">
-        <v>84721.46</v>
+        <v>98049.35</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -553,7 +556,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="2">
-        <v>83429.94</v>
+        <v>49861.99</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -561,7 +564,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="2">
-        <v>61431.14</v>
+        <v>91006.55</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -569,7 +572,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="2">
-        <v>22859.31</v>
+        <v>10408.14</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -577,7 +580,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="2">
-        <v>61943.29</v>
+        <v>26064.53</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -585,7 +588,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="2">
-        <v>38900.75</v>
+        <v>26086.58</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -593,7 +596,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="2">
-        <v>99934.00</v>
+        <v>69260.86</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -601,7 +604,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="2">
-        <v>29728.64</v>
+        <v>45413.52</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -609,7 +612,7 @@
         <v>11</v>
       </c>
       <c r="B11" s="2">
-        <v>55320.47</v>
+        <v>109815.62</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -617,7 +620,7 @@
         <v>12</v>
       </c>
       <c r="B12" s="2">
-        <v>7005.08</v>
+        <v>38323.55</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -625,7 +628,7 @@
         <v>13</v>
       </c>
       <c r="B13" s="2">
-        <v>32989.58</v>
+        <v>11746.37</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -633,7 +636,7 @@
         <v>14</v>
       </c>
       <c r="B14" s="2">
-        <v>5399.28</v>
+        <v>6212.05</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -641,7 +644,7 @@
         <v>15</v>
       </c>
       <c r="B15" s="2">
-        <v>18826.54</v>
+        <v>23683.21</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -649,7 +652,7 @@
         <v>16</v>
       </c>
       <c r="B16" s="2">
-        <v>20119.90</v>
+        <v>5718.27</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -657,7 +660,7 @@
         <v>17</v>
       </c>
       <c r="B17" s="2">
-        <v>63090.92</v>
+        <v>36212.67</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -665,7 +668,7 @@
         <v>18</v>
       </c>
       <c r="B18" s="2">
-        <v>13545.33</v>
+        <v>35432.27</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -673,7 +676,7 @@
         <v>19</v>
       </c>
       <c r="B19" s="2">
-        <v>4219.84</v>
+        <v>36999.87</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -681,7 +684,7 @@
         <v>20</v>
       </c>
       <c r="B20" s="2">
-        <v>1753.80</v>
+        <v>14205.35</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -689,7 +692,7 @@
         <v>21</v>
       </c>
       <c r="B21" s="2">
-        <v>10960.02</v>
+        <v>43.85</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -697,7 +700,7 @@
         <v>22</v>
       </c>
       <c r="B22" s="2">
-        <v>8920.95</v>
+        <v>2266.00</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -705,7 +708,7 @@
         <v>23</v>
       </c>
       <c r="B23" s="2">
-        <v>35805.86</v>
+        <v>20937.84</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -713,7 +716,7 @@
         <v>24</v>
       </c>
       <c r="B24" s="2">
-        <v>3678.25</v>
+        <v>12454.59</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -721,7 +724,7 @@
         <v>25</v>
       </c>
       <c r="B25" s="2">
-        <v>7639.32</v>
+        <v>8134.62</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -729,7 +732,7 @@
         <v>26</v>
       </c>
       <c r="B26" s="2">
-        <v>22561.89</v>
+        <v>9044.55</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -737,7 +740,7 @@
         <v>27</v>
       </c>
       <c r="B27" s="2">
-        <v>60095.28</v>
+        <v>11428.56</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -745,7 +748,7 @@
         <v>28</v>
       </c>
       <c r="B28" s="2">
-        <v>17790.18</v>
+        <v>19023.53</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -753,7 +756,7 @@
         <v>29</v>
       </c>
       <c r="B29" s="2">
-        <v>61871.93</v>
+        <v>27662.91</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -761,7 +764,7 @@
         <v>30</v>
       </c>
       <c r="B30" s="2">
-        <v>13830.18</v>
+        <v>12585.02</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -769,7 +772,7 @@
         <v>31</v>
       </c>
       <c r="B31" s="2">
-        <v>24233.54</v>
+        <v>2820.53</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -777,7 +780,7 @@
         <v>32</v>
       </c>
       <c r="B32" s="2">
-        <v>1332.54</v>
+        <v>13356.96</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -785,7 +788,7 @@
         <v>33</v>
       </c>
       <c r="B33" s="2">
-        <v>7033.03</v>
+        <v>3928.60</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -793,7 +796,7 @@
         <v>34</v>
       </c>
       <c r="B34" s="2">
-        <v>27721.40</v>
+        <v>8742.32</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -801,7 +804,7 @@
         <v>35</v>
       </c>
       <c r="B35" s="2">
-        <v>35630.14</v>
+        <v>36310.56</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -809,7 +812,7 @@
         <v>36</v>
       </c>
       <c r="B36" s="2">
-        <v>1814.68</v>
+        <v>30028.91</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -817,7 +820,7 @@
         <v>37</v>
       </c>
       <c r="B37" s="2">
-        <v>17609.12</v>
+        <v>29999.97</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -825,7 +828,7 @@
         <v>38</v>
       </c>
       <c r="B38" s="2">
-        <v>4188.95</v>
+        <v>20125.69</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -833,7 +836,7 @@
         <v>39</v>
       </c>
       <c r="B39" s="2">
-        <v>13460.04</v>
+        <v>11004.15</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -841,7 +844,7 @@
         <v>40</v>
       </c>
       <c r="B40" s="2">
-        <v>19857.97</v>
+        <v>25787.50</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -849,7 +852,7 @@
         <v>41</v>
       </c>
       <c r="B41" s="2">
-        <v>43694.82</v>
+        <v>220.41</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -857,7 +860,7 @@
         <v>42</v>
       </c>
       <c r="B42" s="2">
-        <v>24689.87</v>
+        <v>659.24</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -865,7 +868,7 @@
         <v>43</v>
       </c>
       <c r="B43" s="2">
-        <v>7028.58</v>
+        <v>3814.34</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -873,7 +876,7 @@
         <v>44</v>
       </c>
       <c r="B44" s="2">
-        <v>10353.63</v>
+        <v>217.86</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -881,7 +884,15 @@
         <v>45</v>
       </c>
       <c r="B45" s="2">
-        <v>228.24</v>
+        <v>186.27</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B46" s="2">
+        <v>7450.00</v>
       </c>
     </row>
   </sheetData>

--- a/reports/For Winter Ending (Prior Year)_PayrollHistory.xlsx
+++ b/reports/For Winter Ending (Prior Year)_PayrollHistory.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>department</t>
   </si>
@@ -52,40 +52,52 @@
     <t>D2000</t>
   </si>
   <si>
+    <t>D2200</t>
+  </si>
+  <si>
     <t>D3000</t>
   </si>
   <si>
-    <t>D3050</t>
-  </si>
-  <si>
-    <t>D4031</t>
-  </si>
-  <si>
-    <t>D4032</t>
-  </si>
-  <si>
-    <t>D4034</t>
+    <t>D4053</t>
+  </si>
+  <si>
+    <t>D4054</t>
+  </si>
+  <si>
+    <t>D4055</t>
   </si>
   <si>
     <t>D5000</t>
   </si>
   <si>
-    <t>D5110</t>
-  </si>
-  <si>
-    <t>D5111</t>
-  </si>
-  <si>
-    <t>D5112</t>
-  </si>
-  <si>
-    <t>D5113</t>
+    <t>D5201</t>
+  </si>
+  <si>
+    <t>D5202</t>
+  </si>
+  <si>
+    <t>D5205</t>
+  </si>
+  <si>
+    <t>D5206</t>
+  </si>
+  <si>
+    <t>D5207</t>
+  </si>
+  <si>
+    <t>D5208</t>
+  </si>
+  <si>
+    <t>D5209</t>
+  </si>
+  <si>
+    <t>D5810</t>
   </si>
   <si>
     <t>D5820</t>
   </si>
   <si>
-    <t>D6030</t>
+    <t>D6212</t>
   </si>
   <si>
     <t>D6215</t>
@@ -94,16 +106,19 @@
     <t>D6700</t>
   </si>
   <si>
+    <t>D6710</t>
+  </si>
+  <si>
+    <t>D6720</t>
+  </si>
+  <si>
     <t>D6721</t>
   </si>
   <si>
     <t>D6730</t>
   </si>
   <si>
-    <t>D6740</t>
-  </si>
-  <si>
-    <t>D6760</t>
+    <t>D6750</t>
   </si>
   <si>
     <t>D6780</t>
@@ -121,9 +136,6 @@
     <t>D7010</t>
   </si>
   <si>
-    <t>D8010</t>
-  </si>
-  <si>
     <t>D8020</t>
   </si>
   <si>
@@ -139,22 +151,7 @@
     <t>D8060</t>
   </si>
   <si>
-    <t>D9000</t>
-  </si>
-  <si>
-    <t>D9005</t>
-  </si>
-  <si>
-    <t>D9007</t>
-  </si>
-  <si>
-    <t>D9008</t>
-  </si>
-  <si>
-    <t>D9009</t>
-  </si>
-  <si>
-    <t>D9012</t>
+    <t>D8810</t>
   </si>
 </sst>
 </file>
@@ -517,14 +514,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B46"/>
+  <dimension ref="A1:B45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12.7109375" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -540,7 +537,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2">
-        <v>34993.53</v>
+        <v>11856.87</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -548,7 +545,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="2">
-        <v>98049.35</v>
+        <v>84721.46</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -556,7 +553,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="2">
-        <v>49861.99</v>
+        <v>83429.94</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -564,7 +561,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="2">
-        <v>91006.55</v>
+        <v>61431.14</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -572,7 +569,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="2">
-        <v>10408.14</v>
+        <v>22859.31</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -580,7 +577,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="2">
-        <v>26064.53</v>
+        <v>61943.29</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -588,7 +585,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="2">
-        <v>26086.58</v>
+        <v>38900.75</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -596,7 +593,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="2">
-        <v>69260.86</v>
+        <v>99934.00</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -604,7 +601,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="2">
-        <v>45413.52</v>
+        <v>29728.64</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -612,7 +609,7 @@
         <v>11</v>
       </c>
       <c r="B11" s="2">
-        <v>109815.62</v>
+        <v>55320.47</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -620,7 +617,7 @@
         <v>12</v>
       </c>
       <c r="B12" s="2">
-        <v>38323.55</v>
+        <v>7005.08</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -628,7 +625,7 @@
         <v>13</v>
       </c>
       <c r="B13" s="2">
-        <v>11746.37</v>
+        <v>32989.58</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -636,7 +633,7 @@
         <v>14</v>
       </c>
       <c r="B14" s="2">
-        <v>6212.05</v>
+        <v>5399.28</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -644,7 +641,7 @@
         <v>15</v>
       </c>
       <c r="B15" s="2">
-        <v>23683.21</v>
+        <v>18826.54</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -652,7 +649,7 @@
         <v>16</v>
       </c>
       <c r="B16" s="2">
-        <v>5718.27</v>
+        <v>20119.90</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -660,7 +657,7 @@
         <v>17</v>
       </c>
       <c r="B17" s="2">
-        <v>36212.67</v>
+        <v>63090.92</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -668,7 +665,7 @@
         <v>18</v>
       </c>
       <c r="B18" s="2">
-        <v>35432.27</v>
+        <v>13545.33</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -676,7 +673,7 @@
         <v>19</v>
       </c>
       <c r="B19" s="2">
-        <v>36999.87</v>
+        <v>4219.84</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -684,7 +681,7 @@
         <v>20</v>
       </c>
       <c r="B20" s="2">
-        <v>14205.35</v>
+        <v>1753.80</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -692,7 +689,7 @@
         <v>21</v>
       </c>
       <c r="B21" s="2">
-        <v>43.85</v>
+        <v>10960.02</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -700,7 +697,7 @@
         <v>22</v>
       </c>
       <c r="B22" s="2">
-        <v>2266.00</v>
+        <v>8920.95</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -708,7 +705,7 @@
         <v>23</v>
       </c>
       <c r="B23" s="2">
-        <v>20937.84</v>
+        <v>35805.86</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -716,7 +713,7 @@
         <v>24</v>
       </c>
       <c r="B24" s="2">
-        <v>12454.59</v>
+        <v>3678.25</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -724,7 +721,7 @@
         <v>25</v>
       </c>
       <c r="B25" s="2">
-        <v>8134.62</v>
+        <v>7639.32</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -732,7 +729,7 @@
         <v>26</v>
       </c>
       <c r="B26" s="2">
-        <v>9044.55</v>
+        <v>22561.89</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -740,7 +737,7 @@
         <v>27</v>
       </c>
       <c r="B27" s="2">
-        <v>11428.56</v>
+        <v>60095.28</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -748,7 +745,7 @@
         <v>28</v>
       </c>
       <c r="B28" s="2">
-        <v>19023.53</v>
+        <v>17790.18</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -756,7 +753,7 @@
         <v>29</v>
       </c>
       <c r="B29" s="2">
-        <v>27662.91</v>
+        <v>61871.93</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -764,7 +761,7 @@
         <v>30</v>
       </c>
       <c r="B30" s="2">
-        <v>12585.02</v>
+        <v>13830.18</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -772,7 +769,7 @@
         <v>31</v>
       </c>
       <c r="B31" s="2">
-        <v>2820.53</v>
+        <v>24233.54</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -780,7 +777,7 @@
         <v>32</v>
       </c>
       <c r="B32" s="2">
-        <v>13356.96</v>
+        <v>1332.54</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -788,7 +785,7 @@
         <v>33</v>
       </c>
       <c r="B33" s="2">
-        <v>3928.60</v>
+        <v>7033.03</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -796,7 +793,7 @@
         <v>34</v>
       </c>
       <c r="B34" s="2">
-        <v>8742.32</v>
+        <v>27721.40</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -804,7 +801,7 @@
         <v>35</v>
       </c>
       <c r="B35" s="2">
-        <v>36310.56</v>
+        <v>35630.14</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -812,7 +809,7 @@
         <v>36</v>
       </c>
       <c r="B36" s="2">
-        <v>30028.91</v>
+        <v>1814.68</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -820,7 +817,7 @@
         <v>37</v>
       </c>
       <c r="B37" s="2">
-        <v>29999.97</v>
+        <v>17609.12</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -828,7 +825,7 @@
         <v>38</v>
       </c>
       <c r="B38" s="2">
-        <v>20125.69</v>
+        <v>4188.95</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -836,7 +833,7 @@
         <v>39</v>
       </c>
       <c r="B39" s="2">
-        <v>11004.15</v>
+        <v>13460.04</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -844,7 +841,7 @@
         <v>40</v>
       </c>
       <c r="B40" s="2">
-        <v>25787.50</v>
+        <v>19857.97</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -852,7 +849,7 @@
         <v>41</v>
       </c>
       <c r="B41" s="2">
-        <v>220.41</v>
+        <v>43694.82</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -860,7 +857,7 @@
         <v>42</v>
       </c>
       <c r="B42" s="2">
-        <v>659.24</v>
+        <v>24689.87</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -868,7 +865,7 @@
         <v>43</v>
       </c>
       <c r="B43" s="2">
-        <v>3814.34</v>
+        <v>7028.58</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -876,7 +873,7 @@
         <v>44</v>
       </c>
       <c r="B44" s="2">
-        <v>217.86</v>
+        <v>10353.63</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -884,15 +881,7 @@
         <v>45</v>
       </c>
       <c r="B45" s="2">
-        <v>186.27</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
-      <c r="A46" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B46" s="2">
-        <v>7450.00</v>
+        <v>228.24</v>
       </c>
     </row>
   </sheetData>

--- a/reports/For Winter Ending (Prior Year)_PayrollHistory.xlsx
+++ b/reports/For Winter Ending (Prior Year)_PayrollHistory.xlsx
@@ -521,7 +521,7 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12.7109375" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -537,7 +537,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2">
-        <v>11856.87</v>
+        <v>12146.91</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -545,7 +545,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="2">
-        <v>84721.46</v>
+        <v>88175.40</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -553,7 +553,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="2">
-        <v>83429.94</v>
+        <v>85159.97</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -561,7 +561,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="2">
-        <v>61431.14</v>
+        <v>63440.41</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -569,7 +569,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="2">
-        <v>22859.31</v>
+        <v>23604.79</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -577,7 +577,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="2">
-        <v>61943.29</v>
+        <v>63804.41</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -585,7 +585,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="2">
-        <v>38900.75</v>
+        <v>39634.49</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -593,7 +593,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="2">
-        <v>99934.00</v>
+        <v>103020.73</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -601,7 +601,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="2">
-        <v>29728.64</v>
+        <v>30586.00</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -609,7 +609,7 @@
         <v>11</v>
       </c>
       <c r="B11" s="2">
-        <v>55320.47</v>
+        <v>59059.37</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -617,7 +617,7 @@
         <v>12</v>
       </c>
       <c r="B12" s="2">
-        <v>7005.08</v>
+        <v>7215.53</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -625,7 +625,7 @@
         <v>13</v>
       </c>
       <c r="B13" s="2">
-        <v>32989.58</v>
+        <v>33753.47</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -641,7 +641,7 @@
         <v>15</v>
       </c>
       <c r="B15" s="2">
-        <v>18826.54</v>
+        <v>19783.15</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -649,7 +649,7 @@
         <v>16</v>
       </c>
       <c r="B16" s="2">
-        <v>20119.90</v>
+        <v>20704.43</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -657,7 +657,7 @@
         <v>17</v>
       </c>
       <c r="B17" s="2">
-        <v>63090.92</v>
+        <v>64644.18</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -665,7 +665,7 @@
         <v>18</v>
       </c>
       <c r="B18" s="2">
-        <v>13545.33</v>
+        <v>14316.45</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -673,7 +673,7 @@
         <v>19</v>
       </c>
       <c r="B19" s="2">
-        <v>4219.84</v>
+        <v>4276.18</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -689,7 +689,7 @@
         <v>21</v>
       </c>
       <c r="B21" s="2">
-        <v>10960.02</v>
+        <v>11406.95</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -697,7 +697,7 @@
         <v>22</v>
       </c>
       <c r="B22" s="2">
-        <v>8920.95</v>
+        <v>9285.98</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -705,7 +705,7 @@
         <v>23</v>
       </c>
       <c r="B23" s="2">
-        <v>35805.86</v>
+        <v>37109.15</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -713,7 +713,7 @@
         <v>24</v>
       </c>
       <c r="B24" s="2">
-        <v>3678.25</v>
+        <v>4016.52</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -721,7 +721,7 @@
         <v>25</v>
       </c>
       <c r="B25" s="2">
-        <v>7639.32</v>
+        <v>7835.20</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -729,7 +729,7 @@
         <v>26</v>
       </c>
       <c r="B26" s="2">
-        <v>22561.89</v>
+        <v>23140.40</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -737,7 +737,7 @@
         <v>27</v>
       </c>
       <c r="B27" s="2">
-        <v>60095.28</v>
+        <v>61713.62</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -745,7 +745,7 @@
         <v>28</v>
       </c>
       <c r="B28" s="2">
-        <v>17790.18</v>
+        <v>18378.84</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -753,7 +753,7 @@
         <v>29</v>
       </c>
       <c r="B29" s="2">
-        <v>61871.93</v>
+        <v>63331.94</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -761,7 +761,7 @@
         <v>30</v>
       </c>
       <c r="B30" s="2">
-        <v>13830.18</v>
+        <v>14184.80</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -769,7 +769,7 @@
         <v>31</v>
       </c>
       <c r="B31" s="2">
-        <v>24233.54</v>
+        <v>24614.46</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -785,7 +785,7 @@
         <v>33</v>
       </c>
       <c r="B33" s="2">
-        <v>7033.03</v>
+        <v>7203.56</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -793,7 +793,7 @@
         <v>34</v>
       </c>
       <c r="B34" s="2">
-        <v>27721.40</v>
+        <v>28342.54</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -801,7 +801,7 @@
         <v>35</v>
       </c>
       <c r="B35" s="2">
-        <v>35630.14</v>
+        <v>36637.76</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -817,7 +817,7 @@
         <v>37</v>
       </c>
       <c r="B37" s="2">
-        <v>17609.12</v>
+        <v>18383.32</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -825,7 +825,7 @@
         <v>38</v>
       </c>
       <c r="B38" s="2">
-        <v>4188.95</v>
+        <v>4348.46</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -833,7 +833,7 @@
         <v>39</v>
       </c>
       <c r="B39" s="2">
-        <v>13460.04</v>
+        <v>13684.11</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -841,7 +841,7 @@
         <v>40</v>
       </c>
       <c r="B40" s="2">
-        <v>19857.97</v>
+        <v>20393.49</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -849,7 +849,7 @@
         <v>41</v>
       </c>
       <c r="B41" s="2">
-        <v>43694.82</v>
+        <v>44815.20</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -857,7 +857,7 @@
         <v>42</v>
       </c>
       <c r="B42" s="2">
-        <v>24689.87</v>
+        <v>25553.32</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -865,7 +865,7 @@
         <v>43</v>
       </c>
       <c r="B43" s="2">
-        <v>7028.58</v>
+        <v>7208.80</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -873,7 +873,7 @@
         <v>44</v>
       </c>
       <c r="B44" s="2">
-        <v>10353.63</v>
+        <v>10674.97</v>
       </c>
     </row>
     <row r="45" spans="1:2">

--- a/reports/For Winter Ending (Prior Year)_PayrollHistory.xlsx
+++ b/reports/For Winter Ending (Prior Year)_PayrollHistory.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <si>
     <t>department</t>
   </si>
@@ -52,52 +52,40 @@
     <t>D2000</t>
   </si>
   <si>
-    <t>D2200</t>
-  </si>
-  <si>
     <t>D3000</t>
   </si>
   <si>
-    <t>D4053</t>
-  </si>
-  <si>
-    <t>D4054</t>
-  </si>
-  <si>
-    <t>D4055</t>
+    <t>D3050</t>
+  </si>
+  <si>
+    <t>D4031</t>
+  </si>
+  <si>
+    <t>D4032</t>
+  </si>
+  <si>
+    <t>D4034</t>
   </si>
   <si>
     <t>D5000</t>
   </si>
   <si>
-    <t>D5201</t>
-  </si>
-  <si>
-    <t>D5202</t>
-  </si>
-  <si>
-    <t>D5205</t>
-  </si>
-  <si>
-    <t>D5206</t>
-  </si>
-  <si>
-    <t>D5207</t>
-  </si>
-  <si>
-    <t>D5208</t>
-  </si>
-  <si>
-    <t>D5209</t>
-  </si>
-  <si>
-    <t>D5810</t>
+    <t>D5110</t>
+  </si>
+  <si>
+    <t>D5111</t>
+  </si>
+  <si>
+    <t>D5112</t>
+  </si>
+  <si>
+    <t>D5113</t>
   </si>
   <si>
     <t>D5820</t>
   </si>
   <si>
-    <t>D6212</t>
+    <t>D6030</t>
   </si>
   <si>
     <t>D6215</t>
@@ -106,19 +94,16 @@
     <t>D6700</t>
   </si>
   <si>
-    <t>D6710</t>
-  </si>
-  <si>
-    <t>D6720</t>
-  </si>
-  <si>
     <t>D6721</t>
   </si>
   <si>
     <t>D6730</t>
   </si>
   <si>
-    <t>D6750</t>
+    <t>D6740</t>
+  </si>
+  <si>
+    <t>D6760</t>
   </si>
   <si>
     <t>D6780</t>
@@ -136,6 +121,9 @@
     <t>D7010</t>
   </si>
   <si>
+    <t>D8010</t>
+  </si>
+  <si>
     <t>D8020</t>
   </si>
   <si>
@@ -151,7 +139,22 @@
     <t>D8060</t>
   </si>
   <si>
-    <t>D8810</t>
+    <t>D9000</t>
+  </si>
+  <si>
+    <t>D9005</t>
+  </si>
+  <si>
+    <t>D9007</t>
+  </si>
+  <si>
+    <t>D9008</t>
+  </si>
+  <si>
+    <t>D9009</t>
+  </si>
+  <si>
+    <t>D9012</t>
   </si>
 </sst>
 </file>
@@ -514,7 +517,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B45"/>
+  <dimension ref="A1:B46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,7 +540,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2">
-        <v>12146.91</v>
+        <v>35890.80</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -545,7 +548,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="2">
-        <v>88175.40</v>
+        <v>102115.57</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -553,7 +556,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="2">
-        <v>85159.97</v>
+        <v>51075.99</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -561,7 +564,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="2">
-        <v>63440.41</v>
+        <v>93139.49</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -569,7 +572,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="2">
-        <v>23604.79</v>
+        <v>10821.92</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -577,7 +580,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="2">
-        <v>63804.41</v>
+        <v>27386.82</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -585,7 +588,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="2">
-        <v>39634.49</v>
+        <v>26852.06</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -593,7 +596,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="2">
-        <v>103020.73</v>
+        <v>71487.54</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -601,7 +604,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="2">
-        <v>30586.00</v>
+        <v>46854.87</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -609,7 +612,7 @@
         <v>11</v>
       </c>
       <c r="B11" s="2">
-        <v>59059.37</v>
+        <v>110976.35</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -617,7 +620,7 @@
         <v>12</v>
       </c>
       <c r="B12" s="2">
-        <v>7215.53</v>
+        <v>40163.77</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -625,7 +628,7 @@
         <v>13</v>
       </c>
       <c r="B13" s="2">
-        <v>33753.47</v>
+        <v>12041.56</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -633,7 +636,7 @@
         <v>14</v>
       </c>
       <c r="B14" s="2">
-        <v>5399.28</v>
+        <v>6365.43</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -641,7 +644,7 @@
         <v>15</v>
       </c>
       <c r="B15" s="2">
-        <v>19783.15</v>
+        <v>24216.74</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -649,7 +652,7 @@
         <v>16</v>
       </c>
       <c r="B16" s="2">
-        <v>20704.43</v>
+        <v>5873.03</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -657,7 +660,7 @@
         <v>17</v>
       </c>
       <c r="B17" s="2">
-        <v>64644.18</v>
+        <v>37141.20</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -665,7 +668,7 @@
         <v>18</v>
       </c>
       <c r="B18" s="2">
-        <v>14316.45</v>
+        <v>36123.02</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -673,7 +676,7 @@
         <v>19</v>
       </c>
       <c r="B19" s="2">
-        <v>4276.18</v>
+        <v>38218.67</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -681,7 +684,7 @@
         <v>20</v>
       </c>
       <c r="B20" s="2">
-        <v>1753.80</v>
+        <v>14556.21</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -689,7 +692,7 @@
         <v>21</v>
       </c>
       <c r="B21" s="2">
-        <v>11406.95</v>
+        <v>43.85</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -697,7 +700,7 @@
         <v>22</v>
       </c>
       <c r="B22" s="2">
-        <v>9285.98</v>
+        <v>2266.00</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -705,7 +708,7 @@
         <v>23</v>
       </c>
       <c r="B23" s="2">
-        <v>37109.15</v>
+        <v>21537.90</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -713,7 +716,7 @@
         <v>24</v>
       </c>
       <c r="B24" s="2">
-        <v>4016.52</v>
+        <v>12717.95</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -721,7 +724,7 @@
         <v>25</v>
       </c>
       <c r="B25" s="2">
-        <v>7835.20</v>
+        <v>8343.20</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -729,7 +732,7 @@
         <v>26</v>
       </c>
       <c r="B26" s="2">
-        <v>23140.40</v>
+        <v>9558.58</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -737,7 +740,7 @@
         <v>27</v>
       </c>
       <c r="B27" s="2">
-        <v>61713.62</v>
+        <v>11852.46</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -745,7 +748,7 @@
         <v>28</v>
       </c>
       <c r="B28" s="2">
-        <v>18378.84</v>
+        <v>19739.43</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -753,7 +756,7 @@
         <v>29</v>
       </c>
       <c r="B29" s="2">
-        <v>63331.94</v>
+        <v>28066.52</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -761,7 +764,7 @@
         <v>30</v>
       </c>
       <c r="B30" s="2">
-        <v>14184.80</v>
+        <v>12786.33</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -769,7 +772,7 @@
         <v>31</v>
       </c>
       <c r="B31" s="2">
-        <v>24614.46</v>
+        <v>2820.53</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -777,7 +780,7 @@
         <v>32</v>
       </c>
       <c r="B32" s="2">
-        <v>1332.54</v>
+        <v>13688.49</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -785,7 +788,7 @@
         <v>33</v>
       </c>
       <c r="B33" s="2">
-        <v>7203.56</v>
+        <v>3928.60</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -793,7 +796,7 @@
         <v>34</v>
       </c>
       <c r="B34" s="2">
-        <v>28342.54</v>
+        <v>9044.52</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -801,7 +804,7 @@
         <v>35</v>
       </c>
       <c r="B35" s="2">
-        <v>36637.76</v>
+        <v>37241.60</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -809,7 +812,7 @@
         <v>36</v>
       </c>
       <c r="B36" s="2">
-        <v>1814.68</v>
+        <v>30929.55</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -817,7 +820,7 @@
         <v>37</v>
       </c>
       <c r="B37" s="2">
-        <v>18383.32</v>
+        <v>30769.20</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -825,7 +828,7 @@
         <v>38</v>
       </c>
       <c r="B38" s="2">
-        <v>4348.46</v>
+        <v>20489.76</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -833,7 +836,7 @@
         <v>39</v>
       </c>
       <c r="B39" s="2">
-        <v>13684.11</v>
+        <v>11421.57</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -841,7 +844,7 @@
         <v>40</v>
       </c>
       <c r="B40" s="2">
-        <v>20393.49</v>
+        <v>26581.88</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -849,7 +852,7 @@
         <v>41</v>
       </c>
       <c r="B41" s="2">
-        <v>44815.20</v>
+        <v>220.41</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -857,7 +860,7 @@
         <v>42</v>
       </c>
       <c r="B42" s="2">
-        <v>25553.32</v>
+        <v>659.24</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -865,7 +868,7 @@
         <v>43</v>
       </c>
       <c r="B43" s="2">
-        <v>7208.80</v>
+        <v>4409.10</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -873,7 +876,7 @@
         <v>44</v>
       </c>
       <c r="B44" s="2">
-        <v>10674.97</v>
+        <v>217.86</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -881,7 +884,15 @@
         <v>45</v>
       </c>
       <c r="B45" s="2">
-        <v>228.24</v>
+        <v>186.27</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B46" s="2">
+        <v>7450.00</v>
       </c>
     </row>
   </sheetData>

--- a/reports/For Winter Ending (Prior Year)_PayrollHistory.xlsx
+++ b/reports/For Winter Ending (Prior Year)_PayrollHistory.xlsx
@@ -22,139 +22,139 @@
     <t>total</t>
   </si>
   <si>
+    <t>D7000</t>
+  </si>
+  <si>
+    <t>D8030</t>
+  </si>
+  <si>
+    <t>D9008</t>
+  </si>
+  <si>
+    <t>D2000</t>
+  </si>
+  <si>
+    <t>D4034</t>
+  </si>
+  <si>
+    <t>D8010</t>
+  </si>
+  <si>
+    <t>D8020</t>
+  </si>
+  <si>
+    <t>D9000</t>
+  </si>
+  <si>
+    <t>D9009</t>
+  </si>
+  <si>
+    <t>D1200</t>
+  </si>
+  <si>
+    <t>D5111</t>
+  </si>
+  <si>
     <t>D6215</t>
   </si>
   <si>
+    <t>D8050</t>
+  </si>
+  <si>
+    <t>D8060</t>
+  </si>
+  <si>
+    <t>D1020</t>
+  </si>
+  <si>
+    <t>D1060</t>
+  </si>
+  <si>
+    <t>D1070</t>
+  </si>
+  <si>
+    <t>D5820</t>
+  </si>
+  <si>
+    <t>D9007</t>
+  </si>
+  <si>
+    <t>D1010</t>
+  </si>
+  <si>
+    <t>D1500</t>
+  </si>
+  <si>
+    <t>D6721</t>
+  </si>
+  <si>
+    <t>D6790</t>
+  </si>
+  <si>
+    <t>D9005</t>
+  </si>
+  <si>
+    <t>D9012</t>
+  </si>
+  <si>
+    <t>D1000</t>
+  </si>
+  <si>
+    <t>D4032</t>
+  </si>
+  <si>
+    <t>D6700</t>
+  </si>
+  <si>
+    <t>D6730</t>
+  </si>
+  <si>
+    <t>D7010</t>
+  </si>
+  <si>
     <t>D1030</t>
   </si>
   <si>
+    <t>D3050</t>
+  </si>
+  <si>
+    <t>D4031</t>
+  </si>
+  <si>
+    <t>D5110</t>
+  </si>
+  <si>
+    <t>D5113</t>
+  </si>
+  <si>
+    <t>D6030</t>
+  </si>
+  <si>
+    <t>D6740</t>
+  </si>
+  <si>
+    <t>D6781</t>
+  </si>
+  <si>
     <t>D1100</t>
   </si>
   <si>
-    <t>D5203</t>
-  </si>
-  <si>
-    <t>D5810</t>
-  </si>
-  <si>
-    <t>D2000</t>
-  </si>
-  <si>
-    <t>D5202</t>
-  </si>
-  <si>
-    <t>D6730</t>
-  </si>
-  <si>
-    <t>D7010</t>
-  </si>
-  <si>
-    <t>D8810</t>
-  </si>
-  <si>
-    <t>D2200</t>
-  </si>
-  <si>
     <t>D3000</t>
   </si>
   <si>
-    <t>D4055</t>
-  </si>
-  <si>
-    <t>D5209</t>
+    <t>D5000</t>
+  </si>
+  <si>
+    <t>D5112</t>
+  </si>
+  <si>
+    <t>D6760</t>
   </si>
   <si>
     <t>D6780</t>
   </si>
   <si>
-    <t>D8020</t>
-  </si>
-  <si>
-    <t>D1020</t>
-  </si>
-  <si>
-    <t>D1070</t>
-  </si>
-  <si>
-    <t>D5000</t>
-  </si>
-  <si>
-    <t>D5201</t>
-  </si>
-  <si>
-    <t>D5208</t>
-  </si>
-  <si>
-    <t>D6781</t>
-  </si>
-  <si>
     <t>D8040</t>
-  </si>
-  <si>
-    <t>D1000</t>
-  </si>
-  <si>
-    <t>D4054</t>
-  </si>
-  <si>
-    <t>D5206</t>
-  </si>
-  <si>
-    <t>D6700</t>
-  </si>
-  <si>
-    <t>D6720</t>
-  </si>
-  <si>
-    <t>D6790</t>
-  </si>
-  <si>
-    <t>D5820</t>
-  </si>
-  <si>
-    <t>D6212</t>
-  </si>
-  <si>
-    <t>D8050</t>
-  </si>
-  <si>
-    <t>D1010</t>
-  </si>
-  <si>
-    <t>D1060</t>
-  </si>
-  <si>
-    <t>D1200</t>
-  </si>
-  <si>
-    <t>D1500</t>
-  </si>
-  <si>
-    <t>D4053</t>
-  </si>
-  <si>
-    <t>D5205</t>
-  </si>
-  <si>
-    <t>D5207</t>
-  </si>
-  <si>
-    <t>D6710</t>
-  </si>
-  <si>
-    <t>D6721</t>
-  </si>
-  <si>
-    <t>D6750</t>
-  </si>
-  <si>
-    <t>D7000</t>
-  </si>
-  <si>
-    <t>D8030</t>
-  </si>
-  <si>
-    <t>D8060</t>
   </si>
 </sst>
 </file>
@@ -540,7 +540,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2">
-        <v>19120.13</v>
+        <v>3928.60</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -548,7 +548,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="2">
-        <v>65322.78</v>
+        <v>31538.43</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -556,7 +556,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="2">
-        <v>40627.34</v>
+        <v>217.86</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -564,7 +564,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="2">
-        <v>161.70</v>
+        <v>112962.06</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -572,7 +572,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="2">
-        <v>8031.08</v>
+        <v>6016.19</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -580,7 +580,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="2">
-        <v>60455.85</v>
+        <v>38172.64</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -588,7 +588,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="2">
-        <v>4599.77</v>
+        <v>31692.16</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -596,7 +596,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="2">
-        <v>7390.67</v>
+        <v>220.41</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -604,7 +604,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="2">
-        <v>14044.04</v>
+        <v>186.27</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -612,7 +612,7 @@
         <v>11</v>
       </c>
       <c r="B11" s="2">
-        <v>228.24</v>
+        <v>73844.54</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -620,7 +620,7 @@
         <v>12</v>
       </c>
       <c r="B12" s="2">
-        <v>7432.63</v>
+        <v>39466.69</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -628,7 +628,7 @@
         <v>13</v>
       </c>
       <c r="B13" s="2">
-        <v>34575.88</v>
+        <v>13318.29</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -636,7 +636,7 @@
         <v>14</v>
       </c>
       <c r="B14" s="2">
-        <v>21562.83</v>
+        <v>11794.09</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -644,7 +644,7 @@
         <v>15</v>
       </c>
       <c r="B15" s="2">
-        <v>4264.95</v>
+        <v>27385.91</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -652,7 +652,7 @@
         <v>16</v>
       </c>
       <c r="B16" s="2">
-        <v>37700.85</v>
+        <v>52556.13</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -660,7 +660,7 @@
         <v>17</v>
       </c>
       <c r="B17" s="2">
-        <v>20793.92</v>
+        <v>11025.53</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -668,7 +668,7 @@
         <v>18</v>
       </c>
       <c r="B18" s="2">
-        <v>87305.07</v>
+        <v>28514.42</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -676,7 +676,7 @@
         <v>19</v>
       </c>
       <c r="B19" s="2">
-        <v>66152.61</v>
+        <v>2590.12</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -684,7 +684,7 @@
         <v>20</v>
       </c>
       <c r="B20" s="2">
-        <v>66414.41</v>
+        <v>4635.58</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -692,7 +692,7 @@
         <v>21</v>
       </c>
       <c r="B21" s="2">
-        <v>15140.77</v>
+        <v>106239.84</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -700,7 +700,7 @@
         <v>22</v>
       </c>
       <c r="B22" s="2">
-        <v>39315.85</v>
+        <v>48437.58</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -708,7 +708,7 @@
         <v>23</v>
       </c>
       <c r="B23" s="2">
-        <v>1922.68</v>
+        <v>9772.08</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -716,7 +716,7 @@
         <v>24</v>
       </c>
       <c r="B24" s="2">
-        <v>26267.11</v>
+        <v>13987.79</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -724,7 +724,7 @@
         <v>25</v>
       </c>
       <c r="B25" s="2">
-        <v>12436.95</v>
+        <v>659.24</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -732,7 +732,7 @@
         <v>26</v>
       </c>
       <c r="B26" s="2">
-        <v>20583.85</v>
+        <v>7450.00</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -740,7 +740,7 @@
         <v>27</v>
       </c>
       <c r="B27" s="2">
-        <v>12139.16</v>
+        <v>36788.07</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -748,7 +748,7 @@
         <v>28</v>
       </c>
       <c r="B28" s="2">
-        <v>64796.20</v>
+        <v>25017.09</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -756,7 +756,7 @@
         <v>29</v>
       </c>
       <c r="B29" s="2">
-        <v>24995.38</v>
+        <v>8551.78</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -764,7 +764,7 @@
         <v>30</v>
       </c>
       <c r="B30" s="2">
-        <v>18987.51</v>
+        <v>12022.79</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -772,7 +772,7 @@
         <v>31</v>
       </c>
       <c r="B31" s="2">
-        <v>23718.91</v>
+        <v>9346.72</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -780,7 +780,7 @@
         <v>32</v>
       </c>
       <c r="B32" s="2">
-        <v>63374.11</v>
+        <v>95235.74</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -788,7 +788,7 @@
         <v>33</v>
       </c>
       <c r="B33" s="2">
-        <v>7389.02</v>
+        <v>12298.56</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -796,7 +796,7 @@
         <v>34</v>
       </c>
       <c r="B34" s="2">
-        <v>91259.39</v>
+        <v>6518.24</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -804,7 +804,7 @@
         <v>35</v>
       </c>
       <c r="B35" s="2">
-        <v>24244.20</v>
+        <v>36823.62</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -812,7 +812,7 @@
         <v>36</v>
       </c>
       <c r="B36" s="2">
-        <v>106568.83</v>
+        <v>43.85</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -820,7 +820,7 @@
         <v>37</v>
       </c>
       <c r="B37" s="2">
-        <v>31604.31</v>
+        <v>22010.54</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -828,7 +828,7 @@
         <v>38</v>
       </c>
       <c r="B38" s="2">
-        <v>5399.28</v>
+        <v>20607.72</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -836,7 +836,7 @@
         <v>39</v>
       </c>
       <c r="B39" s="2">
-        <v>1753.80</v>
+        <v>2820.53</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -844,7 +844,7 @@
         <v>40</v>
       </c>
       <c r="B40" s="2">
-        <v>9632.88</v>
+        <v>27321.72</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -852,7 +852,7 @@
         <v>41</v>
       </c>
       <c r="B41" s="2">
-        <v>14539.42</v>
+        <v>41922.09</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -860,7 +860,7 @@
         <v>42</v>
       </c>
       <c r="B42" s="2">
-        <v>1332.54</v>
+        <v>38069.73</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -868,7 +868,7 @@
         <v>43</v>
       </c>
       <c r="B43" s="2">
-        <v>28909.60</v>
+        <v>14841.13</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -876,7 +876,7 @@
         <v>44</v>
       </c>
       <c r="B44" s="2">
-        <v>4511.65</v>
+        <v>28672.90</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -884,7 +884,7 @@
         <v>45</v>
       </c>
       <c r="B45" s="2">
-        <v>45935.58</v>
+        <v>13101.07</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -892,7 +892,7 @@
         <v>46</v>
       </c>
       <c r="B46" s="2">
-        <v>10847.16</v>
+        <v>21004.84</v>
       </c>
     </row>
   </sheetData>

--- a/reports/For Winter Ending (Prior Year)_PayrollHistory.xlsx
+++ b/reports/For Winter Ending (Prior Year)_PayrollHistory.xlsx
@@ -22,139 +22,139 @@
     <t>total</t>
   </si>
   <si>
+    <t>D6215</t>
+  </si>
+  <si>
+    <t>D1030</t>
+  </si>
+  <si>
+    <t>D1100</t>
+  </si>
+  <si>
+    <t>D5203</t>
+  </si>
+  <si>
+    <t>D5810</t>
+  </si>
+  <si>
+    <t>D5820</t>
+  </si>
+  <si>
+    <t>D6212</t>
+  </si>
+  <si>
+    <t>D8050</t>
+  </si>
+  <si>
+    <t>D2000</t>
+  </si>
+  <si>
+    <t>D5202</t>
+  </si>
+  <si>
+    <t>D6730</t>
+  </si>
+  <si>
+    <t>D7010</t>
+  </si>
+  <si>
+    <t>D8810</t>
+  </si>
+  <si>
+    <t>D1000</t>
+  </si>
+  <si>
+    <t>D4054</t>
+  </si>
+  <si>
+    <t>D5206</t>
+  </si>
+  <si>
+    <t>D6700</t>
+  </si>
+  <si>
+    <t>D6720</t>
+  </si>
+  <si>
+    <t>D6790</t>
+  </si>
+  <si>
+    <t>D2200</t>
+  </si>
+  <si>
+    <t>D3000</t>
+  </si>
+  <si>
+    <t>D4055</t>
+  </si>
+  <si>
+    <t>D5209</t>
+  </si>
+  <si>
+    <t>D6780</t>
+  </si>
+  <si>
+    <t>D8020</t>
+  </si>
+  <si>
+    <t>D1020</t>
+  </si>
+  <si>
+    <t>D1070</t>
+  </si>
+  <si>
+    <t>D5000</t>
+  </si>
+  <si>
+    <t>D5201</t>
+  </si>
+  <si>
+    <t>D5208</t>
+  </si>
+  <si>
+    <t>D6781</t>
+  </si>
+  <si>
+    <t>D8040</t>
+  </si>
+  <si>
+    <t>D1010</t>
+  </si>
+  <si>
+    <t>D1060</t>
+  </si>
+  <si>
+    <t>D1200</t>
+  </si>
+  <si>
+    <t>D1500</t>
+  </si>
+  <si>
+    <t>D4053</t>
+  </si>
+  <si>
+    <t>D5205</t>
+  </si>
+  <si>
+    <t>D5207</t>
+  </si>
+  <si>
+    <t>D6710</t>
+  </si>
+  <si>
+    <t>D6721</t>
+  </si>
+  <si>
+    <t>D6750</t>
+  </si>
+  <si>
     <t>D7000</t>
   </si>
   <si>
     <t>D8030</t>
   </si>
   <si>
-    <t>D9008</t>
-  </si>
-  <si>
-    <t>D2000</t>
-  </si>
-  <si>
-    <t>D4034</t>
-  </si>
-  <si>
-    <t>D8010</t>
-  </si>
-  <si>
-    <t>D8020</t>
-  </si>
-  <si>
-    <t>D9000</t>
-  </si>
-  <si>
-    <t>D9009</t>
-  </si>
-  <si>
-    <t>D1200</t>
-  </si>
-  <si>
-    <t>D5111</t>
-  </si>
-  <si>
-    <t>D6215</t>
-  </si>
-  <si>
-    <t>D8050</t>
-  </si>
-  <si>
     <t>D8060</t>
-  </si>
-  <si>
-    <t>D1020</t>
-  </si>
-  <si>
-    <t>D1060</t>
-  </si>
-  <si>
-    <t>D1070</t>
-  </si>
-  <si>
-    <t>D5820</t>
-  </si>
-  <si>
-    <t>D9007</t>
-  </si>
-  <si>
-    <t>D1010</t>
-  </si>
-  <si>
-    <t>D1500</t>
-  </si>
-  <si>
-    <t>D6721</t>
-  </si>
-  <si>
-    <t>D6790</t>
-  </si>
-  <si>
-    <t>D9005</t>
-  </si>
-  <si>
-    <t>D9012</t>
-  </si>
-  <si>
-    <t>D1000</t>
-  </si>
-  <si>
-    <t>D4032</t>
-  </si>
-  <si>
-    <t>D6700</t>
-  </si>
-  <si>
-    <t>D6730</t>
-  </si>
-  <si>
-    <t>D7010</t>
-  </si>
-  <si>
-    <t>D1030</t>
-  </si>
-  <si>
-    <t>D3050</t>
-  </si>
-  <si>
-    <t>D4031</t>
-  </si>
-  <si>
-    <t>D5110</t>
-  </si>
-  <si>
-    <t>D5113</t>
-  </si>
-  <si>
-    <t>D6030</t>
-  </si>
-  <si>
-    <t>D6740</t>
-  </si>
-  <si>
-    <t>D6781</t>
-  </si>
-  <si>
-    <t>D1100</t>
-  </si>
-  <si>
-    <t>D3000</t>
-  </si>
-  <si>
-    <t>D5000</t>
-  </si>
-  <si>
-    <t>D5112</t>
-  </si>
-  <si>
-    <t>D6760</t>
-  </si>
-  <si>
-    <t>D6780</t>
-  </si>
-  <si>
-    <t>D8040</t>
   </si>
 </sst>
 </file>
@@ -540,7 +540,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2">
-        <v>3928.60</v>
+        <v>20635.81</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -548,7 +548,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="2">
-        <v>31538.43</v>
+        <v>72365.31</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -556,7 +556,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="2">
-        <v>217.86</v>
+        <v>43626.33</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -564,7 +564,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="2">
-        <v>112962.06</v>
+        <v>523.34</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -572,7 +572,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="2">
-        <v>6016.19</v>
+        <v>8820.02</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -580,7 +580,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="2">
-        <v>38172.64</v>
+        <v>25454.44</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -588,7 +588,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="2">
-        <v>31692.16</v>
+        <v>69190.31</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -596,7 +596,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="2">
-        <v>220.41</v>
+        <v>7974.74</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -604,7 +604,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="2">
-        <v>186.27</v>
+        <v>71402.10</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -612,7 +612,7 @@
         <v>11</v>
       </c>
       <c r="B11" s="2">
-        <v>73844.54</v>
+        <v>7496.57</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -620,7 +620,7 @@
         <v>12</v>
       </c>
       <c r="B12" s="2">
-        <v>39466.69</v>
+        <v>7914.28</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -628,7 +628,7 @@
         <v>13</v>
       </c>
       <c r="B13" s="2">
-        <v>13318.29</v>
+        <v>15285.01</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -636,7 +636,7 @@
         <v>14</v>
       </c>
       <c r="B14" s="2">
-        <v>11794.09</v>
+        <v>228.24</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -644,7 +644,7 @@
         <v>15</v>
       </c>
       <c r="B15" s="2">
-        <v>27385.91</v>
+        <v>13307.07</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -652,7 +652,7 @@
         <v>16</v>
       </c>
       <c r="B16" s="2">
-        <v>52556.13</v>
+        <v>23836.51</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -660,7 +660,7 @@
         <v>17</v>
       </c>
       <c r="B17" s="2">
-        <v>11025.53</v>
+        <v>12956.62</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -668,7 +668,7 @@
         <v>18</v>
       </c>
       <c r="B18" s="2">
-        <v>28514.42</v>
+        <v>69031.40</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -676,7 +676,7 @@
         <v>19</v>
       </c>
       <c r="B19" s="2">
-        <v>2590.12</v>
+        <v>26138.14</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -684,7 +684,7 @@
         <v>20</v>
       </c>
       <c r="B20" s="2">
-        <v>4635.58</v>
+        <v>21010.85</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -692,7 +692,7 @@
         <v>21</v>
       </c>
       <c r="B21" s="2">
-        <v>106239.84</v>
+        <v>8565.74</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -700,7 +700,7 @@
         <v>22</v>
       </c>
       <c r="B22" s="2">
-        <v>48437.58</v>
+        <v>38082.81</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -708,7 +708,7 @@
         <v>23</v>
       </c>
       <c r="B23" s="2">
-        <v>9772.08</v>
+        <v>23354.17</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -716,7 +716,7 @@
         <v>24</v>
       </c>
       <c r="B24" s="2">
-        <v>13987.79</v>
+        <v>5280.80</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -724,7 +724,7 @@
         <v>25</v>
       </c>
       <c r="B25" s="2">
-        <v>659.24</v>
+        <v>41866.34</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -732,7 +732,7 @@
         <v>26</v>
       </c>
       <c r="B26" s="2">
-        <v>7450.00</v>
+        <v>22644.56</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -740,7 +740,7 @@
         <v>27</v>
       </c>
       <c r="B27" s="2">
-        <v>36788.07</v>
+        <v>93585.45</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -748,7 +748,7 @@
         <v>28</v>
       </c>
       <c r="B28" s="2">
-        <v>25017.09</v>
+        <v>72079.01</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -756,7 +756,7 @@
         <v>29</v>
       </c>
       <c r="B29" s="2">
-        <v>8551.78</v>
+        <v>71420.31</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -764,7 +764,7 @@
         <v>30</v>
       </c>
       <c r="B30" s="2">
-        <v>12022.79</v>
+        <v>17264.93</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -772,7 +772,7 @@
         <v>31</v>
       </c>
       <c r="B31" s="2">
-        <v>9346.72</v>
+        <v>46386.15</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -780,7 +780,7 @@
         <v>32</v>
       </c>
       <c r="B32" s="2">
-        <v>95235.74</v>
+        <v>1922.68</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -788,7 +788,7 @@
         <v>33</v>
       </c>
       <c r="B33" s="2">
-        <v>12298.56</v>
+        <v>28586.07</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -796,7 +796,7 @@
         <v>34</v>
       </c>
       <c r="B34" s="2">
-        <v>6518.24</v>
+        <v>104226.91</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -804,7 +804,7 @@
         <v>35</v>
       </c>
       <c r="B35" s="2">
-        <v>36823.62</v>
+        <v>26017.16</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -812,7 +812,7 @@
         <v>36</v>
       </c>
       <c r="B36" s="2">
-        <v>43.85</v>
+        <v>119090.38</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -820,7 +820,7 @@
         <v>37</v>
       </c>
       <c r="B37" s="2">
-        <v>22010.54</v>
+        <v>34772.19</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -828,7 +828,7 @@
         <v>38</v>
       </c>
       <c r="B38" s="2">
-        <v>20607.72</v>
+        <v>5399.28</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -836,7 +836,7 @@
         <v>39</v>
       </c>
       <c r="B39" s="2">
-        <v>2820.53</v>
+        <v>2008.05</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -844,7 +844,7 @@
         <v>40</v>
       </c>
       <c r="B40" s="2">
-        <v>27321.72</v>
+        <v>10706.19</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -852,7 +852,7 @@
         <v>41</v>
       </c>
       <c r="B41" s="2">
-        <v>41922.09</v>
+        <v>15603.28</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -860,7 +860,7 @@
         <v>42</v>
       </c>
       <c r="B42" s="2">
-        <v>38069.73</v>
+        <v>1332.54</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -868,7 +868,7 @@
         <v>43</v>
       </c>
       <c r="B43" s="2">
-        <v>14841.13</v>
+        <v>31024.63</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -876,7 +876,7 @@
         <v>44</v>
       </c>
       <c r="B44" s="2">
-        <v>28672.90</v>
+        <v>4638.03</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -884,7 +884,7 @@
         <v>45</v>
       </c>
       <c r="B45" s="2">
-        <v>13101.07</v>
+        <v>49318.35</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -892,7 +892,7 @@
         <v>46</v>
       </c>
       <c r="B46" s="2">
-        <v>21004.84</v>
+        <v>11675.33</v>
       </c>
     </row>
   </sheetData>

--- a/reports/For Winter Ending (Prior Year)_PayrollHistory.xlsx
+++ b/reports/For Winter Ending (Prior Year)_PayrollHistory.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>department</t>
   </si>
@@ -22,139 +22,142 @@
     <t>total</t>
   </si>
   <si>
+    <t>D7000</t>
+  </si>
+  <si>
+    <t>D8030</t>
+  </si>
+  <si>
+    <t>D9008</t>
+  </si>
+  <si>
+    <t>D1000</t>
+  </si>
+  <si>
+    <t>D4032</t>
+  </si>
+  <si>
+    <t>D6700</t>
+  </si>
+  <si>
+    <t>D6730</t>
+  </si>
+  <si>
+    <t>D7010</t>
+  </si>
+  <si>
+    <t>D1200</t>
+  </si>
+  <si>
+    <t>D5111</t>
+  </si>
+  <si>
     <t>D6215</t>
   </si>
   <si>
+    <t>D8050</t>
+  </si>
+  <si>
+    <t>D8060</t>
+  </si>
+  <si>
+    <t>D1100</t>
+  </si>
+  <si>
+    <t>D3000</t>
+  </si>
+  <si>
+    <t>D5000</t>
+  </si>
+  <si>
+    <t>D5112</t>
+  </si>
+  <si>
+    <t>D6760</t>
+  </si>
+  <si>
+    <t>D6780</t>
+  </si>
+  <si>
+    <t>D8040</t>
+  </si>
+  <si>
+    <t>D2000</t>
+  </si>
+  <si>
+    <t>D4034</t>
+  </si>
+  <si>
+    <t>D8010</t>
+  </si>
+  <si>
+    <t>D8020</t>
+  </si>
+  <si>
+    <t>D9000</t>
+  </si>
+  <si>
+    <t>D9009</t>
+  </si>
+  <si>
+    <t>D1010</t>
+  </si>
+  <si>
+    <t>D1500</t>
+  </si>
+  <si>
+    <t>D6721</t>
+  </si>
+  <si>
+    <t>D6790</t>
+  </si>
+  <si>
+    <t>D9005</t>
+  </si>
+  <si>
+    <t>D9012</t>
+  </si>
+  <si>
+    <t>D1020</t>
+  </si>
+  <si>
+    <t>D1060</t>
+  </si>
+  <si>
+    <t>D1070</t>
+  </si>
+  <si>
+    <t>D5820</t>
+  </si>
+  <si>
+    <t>D9007</t>
+  </si>
+  <si>
     <t>D1030</t>
   </si>
   <si>
-    <t>D1100</t>
-  </si>
-  <si>
-    <t>D5203</t>
+    <t>D3050</t>
+  </si>
+  <si>
+    <t>D4031</t>
+  </si>
+  <si>
+    <t>D5110</t>
+  </si>
+  <si>
+    <t>D5113</t>
   </si>
   <si>
     <t>D5810</t>
   </si>
   <si>
-    <t>D5820</t>
-  </si>
-  <si>
-    <t>D6212</t>
-  </si>
-  <si>
-    <t>D8050</t>
-  </si>
-  <si>
-    <t>D2000</t>
-  </si>
-  <si>
-    <t>D5202</t>
-  </si>
-  <si>
-    <t>D6730</t>
-  </si>
-  <si>
-    <t>D7010</t>
-  </si>
-  <si>
-    <t>D8810</t>
-  </si>
-  <si>
-    <t>D1000</t>
-  </si>
-  <si>
-    <t>D4054</t>
-  </si>
-  <si>
-    <t>D5206</t>
-  </si>
-  <si>
-    <t>D6700</t>
-  </si>
-  <si>
-    <t>D6720</t>
-  </si>
-  <si>
-    <t>D6790</t>
-  </si>
-  <si>
-    <t>D2200</t>
-  </si>
-  <si>
-    <t>D3000</t>
-  </si>
-  <si>
-    <t>D4055</t>
-  </si>
-  <si>
-    <t>D5209</t>
-  </si>
-  <si>
-    <t>D6780</t>
-  </si>
-  <si>
-    <t>D8020</t>
-  </si>
-  <si>
-    <t>D1020</t>
-  </si>
-  <si>
-    <t>D1070</t>
-  </si>
-  <si>
-    <t>D5000</t>
-  </si>
-  <si>
-    <t>D5201</t>
-  </si>
-  <si>
-    <t>D5208</t>
+    <t>D6030</t>
+  </si>
+  <si>
+    <t>D6740</t>
   </si>
   <si>
     <t>D6781</t>
-  </si>
-  <si>
-    <t>D8040</t>
-  </si>
-  <si>
-    <t>D1010</t>
-  </si>
-  <si>
-    <t>D1060</t>
-  </si>
-  <si>
-    <t>D1200</t>
-  </si>
-  <si>
-    <t>D1500</t>
-  </si>
-  <si>
-    <t>D4053</t>
-  </si>
-  <si>
-    <t>D5205</t>
-  </si>
-  <si>
-    <t>D5207</t>
-  </si>
-  <si>
-    <t>D6710</t>
-  </si>
-  <si>
-    <t>D6721</t>
-  </si>
-  <si>
-    <t>D6750</t>
-  </si>
-  <si>
-    <t>D7000</t>
-  </si>
-  <si>
-    <t>D8030</t>
-  </si>
-  <si>
-    <t>D8060</t>
   </si>
 </sst>
 </file>
@@ -517,7 +520,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B46"/>
+  <dimension ref="A1:B47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -540,7 +543,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2">
-        <v>20635.81</v>
+        <v>3928.60</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -548,7 +551,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="2">
-        <v>72365.31</v>
+        <v>33846.12</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -556,7 +559,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="2">
-        <v>43626.33</v>
+        <v>217.86</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -564,7 +567,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="2">
-        <v>523.34</v>
+        <v>39479.88</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -572,7 +575,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="2">
-        <v>8820.02</v>
+        <v>26773.90</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -580,7 +583,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="2">
-        <v>25454.44</v>
+        <v>9177.52</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -588,7 +591,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="2">
-        <v>69190.31</v>
+        <v>12771.28</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -596,7 +599,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="2">
-        <v>7974.74</v>
+        <v>10253.32</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -604,7 +607,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="2">
-        <v>71402.10</v>
+        <v>82377.22</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -612,7 +615,7 @@
         <v>11</v>
       </c>
       <c r="B11" s="2">
-        <v>7496.57</v>
+        <v>46286.45</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -620,7 +623,7 @@
         <v>12</v>
       </c>
       <c r="B12" s="2">
-        <v>7914.28</v>
+        <v>14537.00</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -628,7 +631,7 @@
         <v>13</v>
       </c>
       <c r="B13" s="2">
-        <v>15285.01</v>
+        <v>12419.83</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -636,7 +639,7 @@
         <v>14</v>
       </c>
       <c r="B14" s="2">
-        <v>228.24</v>
+        <v>29947.63</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -644,7 +647,7 @@
         <v>15</v>
       </c>
       <c r="B15" s="2">
-        <v>13307.07</v>
+        <v>28833.33</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -652,7 +655,7 @@
         <v>16</v>
       </c>
       <c r="B16" s="2">
-        <v>23836.51</v>
+        <v>48234.84</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -660,7 +663,7 @@
         <v>17</v>
       </c>
       <c r="B17" s="2">
-        <v>12956.62</v>
+        <v>40855.32</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -668,7 +671,7 @@
         <v>18</v>
       </c>
       <c r="B18" s="2">
-        <v>69031.40</v>
+        <v>16150.09</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -676,7 +679,7 @@
         <v>19</v>
       </c>
       <c r="B19" s="2">
-        <v>26138.14</v>
+        <v>30507.11</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -684,7 +687,7 @@
         <v>20</v>
       </c>
       <c r="B20" s="2">
-        <v>21010.85</v>
+        <v>13988.74</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -692,7 +695,7 @@
         <v>21</v>
       </c>
       <c r="B21" s="2">
-        <v>8565.74</v>
+        <v>22750.53</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -700,7 +703,7 @@
         <v>22</v>
       </c>
       <c r="B22" s="2">
-        <v>38082.81</v>
+        <v>123096.85</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -708,7 +711,7 @@
         <v>23</v>
       </c>
       <c r="B23" s="2">
-        <v>23354.17</v>
+        <v>6462.79</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -716,7 +719,7 @@
         <v>24</v>
       </c>
       <c r="B24" s="2">
-        <v>5280.80</v>
+        <v>40965.76</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -724,7 +727,7 @@
         <v>25</v>
       </c>
       <c r="B25" s="2">
-        <v>41866.34</v>
+        <v>33654.31</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -732,7 +735,7 @@
         <v>26</v>
       </c>
       <c r="B26" s="2">
-        <v>22644.56</v>
+        <v>220.41</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -740,7 +743,7 @@
         <v>27</v>
       </c>
       <c r="B27" s="2">
-        <v>93585.45</v>
+        <v>186.27</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -748,7 +751,7 @@
         <v>28</v>
       </c>
       <c r="B28" s="2">
-        <v>72079.01</v>
+        <v>119170.42</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -756,7 +759,7 @@
         <v>29</v>
       </c>
       <c r="B29" s="2">
-        <v>71420.31</v>
+        <v>54011.29</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -764,7 +767,7 @@
         <v>30</v>
       </c>
       <c r="B30" s="2">
-        <v>17264.93</v>
+        <v>11135.97</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -772,7 +775,7 @@
         <v>31</v>
       </c>
       <c r="B31" s="2">
-        <v>46386.15</v>
+        <v>15736.24</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -780,7 +783,7 @@
         <v>32</v>
       </c>
       <c r="B32" s="2">
-        <v>1922.68</v>
+        <v>659.24</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -788,7 +791,7 @@
         <v>33</v>
       </c>
       <c r="B33" s="2">
-        <v>28586.07</v>
+        <v>7450.00</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -796,7 +799,7 @@
         <v>34</v>
       </c>
       <c r="B34" s="2">
-        <v>104226.91</v>
+        <v>56873.04</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -804,7 +807,7 @@
         <v>35</v>
       </c>
       <c r="B35" s="2">
-        <v>26017.16</v>
+        <v>12584.34</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -812,7 +815,7 @@
         <v>36</v>
       </c>
       <c r="B36" s="2">
-        <v>119090.38</v>
+        <v>31005.40</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -820,7 +823,7 @@
         <v>37</v>
       </c>
       <c r="B37" s="2">
-        <v>34772.19</v>
+        <v>4328.56</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -828,7 +831,7 @@
         <v>38</v>
       </c>
       <c r="B38" s="2">
-        <v>5399.28</v>
+        <v>4635.58</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -836,7 +839,7 @@
         <v>39</v>
       </c>
       <c r="B39" s="2">
-        <v>2008.05</v>
+        <v>102772.25</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -844,7 +847,7 @@
         <v>40</v>
       </c>
       <c r="B40" s="2">
-        <v>10706.19</v>
+        <v>13512.64</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -852,7 +855,7 @@
         <v>41</v>
       </c>
       <c r="B41" s="2">
-        <v>15603.28</v>
+        <v>7033.63</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -860,7 +863,7 @@
         <v>42</v>
       </c>
       <c r="B42" s="2">
-        <v>1332.54</v>
+        <v>41122.04</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -868,7 +871,7 @@
         <v>43</v>
       </c>
       <c r="B43" s="2">
-        <v>31024.63</v>
+        <v>43.85</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -876,7 +879,7 @@
         <v>44</v>
       </c>
       <c r="B44" s="2">
-        <v>4638.03</v>
+        <v>216.21</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -884,7 +887,7 @@
         <v>45</v>
       </c>
       <c r="B45" s="2">
-        <v>49318.35</v>
+        <v>23915.55</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -892,7 +895,15 @@
         <v>46</v>
       </c>
       <c r="B46" s="2">
-        <v>11675.33</v>
+        <v>22577.14</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B47" s="2">
+        <v>2831.73</v>
       </c>
     </row>
   </sheetData>
